--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1298,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1345,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1391,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1575,10 +1587,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1622,28 +1634,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1668,28 +1680,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1922,10 +1934,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1969,28 +1981,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2015,28 +2027,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2182,10 +2194,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2229,28 +2241,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2275,28 +2287,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2529,10 +2541,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2576,28 +2588,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2622,28 +2634,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2876,10 +2888,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2923,28 +2935,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2969,28 +2981,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3165,10 +3177,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3212,28 +3224,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3258,28 +3270,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3524,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3559,28 +3571,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3617,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3801,10 +3813,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3848,28 +3860,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3894,28 +3906,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4090,10 +4102,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4137,28 +4149,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4183,28 +4195,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4350,10 +4362,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4397,28 +4409,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4443,28 +4455,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4581,10 +4593,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4628,28 +4640,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4674,28 +4686,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4957,10 +4969,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5004,28 +5016,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5050,28 +5062,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5275,10 +5287,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5322,28 +5334,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5368,28 +5380,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5506,10 +5518,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5553,28 +5565,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5599,28 +5611,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5708,10 +5720,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5755,28 +5767,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5801,28 +5813,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5910,10 +5922,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5957,28 +5969,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6003,28 +6015,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6083,10 +6095,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
